--- a/config_11.9/act_ty_gifts_config.xlsx
+++ b/config_11.9/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="152">
   <si>
     <t>index|序号</t>
   </si>
@@ -532,7 +532,11 @@
     <t>"hflb_btn_bx3","ty_icon_flq5","zpg_icon_yg"</t>
   </si>
   <si>
-    <t>"点击道具奖励提示“可以在小游戏苹果大战中使用”"</t>
+    <t>可以在小游戏苹果大战中使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在小游戏苹果大战中使用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1188,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2140,7 @@
         <v>149</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>49</v>

--- a/config_11.9/act_ty_gifts_config.xlsx
+++ b/config_11.9/act_ty_gifts_config.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
   <si>
     <t>index|序号</t>
   </si>
@@ -532,11 +532,7 @@
     <t>"hflb_btn_bx3","ty_icon_flq5","zpg_icon_yg"</t>
   </si>
   <si>
-    <t>可以在小游戏苹果大战中使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在小游戏苹果大战中使用</t>
+    <t>"可以在小游戏苹果大战中使用",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1193,7 +1189,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2136,7 @@
         <v>149</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>49</v>
